--- a/biology/Zoologie/Aristobia_approximator/Aristobia_approximator.xlsx
+++ b/biology/Zoologie/Aristobia_approximator/Aristobia_approximator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristobia approximator est une espèce asiatique de coléoptères de la famille des Cerambycidae (capricornes), que l'on retrouve en Inde et en Asie du Sud-Est. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aristobia approximator a été décrite pour la première fois en 1865 par l'entomologiste américain James Thomson (1828-1897) sous le protonyme de Celosterna approximator[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aristobia approximator a été décrite pour la première fois en 1865 par l'entomologiste américain James Thomson (1828-1897) sous le protonyme de Celosterna approximator,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristobia approximator mesure jusqu'à 36 mm de long[3]. Cette espèce a un corps noir avec des taches jaunes et des touffes noires sur les premiers segments de ses antennes, comme l'espèce apparentée Aristobia reticulator (en). A. approximator a des touffes uniquement sur le troisième segment, tandis qu’A. reticulator en a sur les segments 3, 4 et parfois 5[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristobia approximator mesure jusqu'à 36 mm de long. Cette espèce a un corps noir avec des taches jaunes et des touffes noires sur les premiers segments de ses antennes, comme l'espèce apparentée Aristobia reticulator (en). A. approximator a des touffes uniquement sur le troisième segment, tandis qu’A. reticulator en a sur les segments 3, 4 et parfois 5.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Régime alimentaire et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est connue pour se nourrir de teck[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est connue pour se nourrir de teck.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (29 juin 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 juin 2022) :
 variété Aristobia approximator var. birmanica Gahan, 1895</t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>James Thomson, Systema cerambycidarum, ou, Exposé de tous les genres compris dans la famille des cérambycides et familles limitrophes,  (publication), Imprimerie de H. Dessain, 1864, [lire en ligne]</t>
         </is>
